--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -259,7 +259,7 @@
     <t>AutoCourse</t>
   </si>
   <si>
-    <t>prod41@yopmail.com</t>
+    <t>prod50@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,7 +294,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
